--- a/biology/Botanique/Pterocarpus_santalinus/Pterocarpus_santalinus.xlsx
+++ b/biology/Botanique/Pterocarpus_santalinus/Pterocarpus_santalinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Faux-santal rouge
-Pterocarpus santalinus, le faux-santal rouge[2], est une espèce d'arbres de la famille des Fabacées. Il est endémique de la chaîne des Ghats orientaux, dans l'Est de l’Inde. Cet arbre est apprécié pour la riche couleur rouge de son bois. Le bois n’est pas aromatique. L’arbre est à ne pas confondre avec les arbres de bois de santal Santalum aromatiques qui poussent dans le Sud de l’Inde.
+Pterocarpus santalinus, le faux-santal rouge, est une espèce d'arbres de la famille des Fabacées. Il est endémique de la chaîne des Ghats orientaux, dans l'Est de l’Inde. Cet arbre est apprécié pour la riche couleur rouge de son bois. Le bois n’est pas aromatique. L’arbre est à ne pas confondre avec les arbres de bois de santal Santalum aromatiques qui poussent dans le Sud de l’Inde.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pterocarpus santalinus est exigeant en lumière, grandissant à 8 mètres de haut avec un diamètre de 50 à 150 cm de tronc. Il est en croissance rapide quand il est jeune, pour atteindre 5 mètres de haut en trois ans, même sur des sols hors graduées. Il n’est pas tolérant au froid, étant tué par des températures de −1 °C.
 Les feuilles sont alternes, 3 à 9 cm de long, avec trois folioles des feuilles trifoliées.
